--- a/Logistic regresion/Wine/Autograd Wine/Test1000.xlsx
+++ b/Logistic regresion/Wine/Autograd Wine/Test1000.xlsx
@@ -431,10 +431,10 @@
         <v>1000</v>
       </c>
       <c r="E2">
-        <v>0.7865295486317829</v>
+        <v>0.7207646364768476</v>
       </c>
       <c r="F2">
-        <v>0.4279019832611084</v>
+        <v>0.7800948619842529</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -451,10 +451,10 @@
         <v>1000</v>
       </c>
       <c r="E3">
-        <v>0.7767253221783581</v>
+        <v>0.7114086980198628</v>
       </c>
       <c r="F3">
-        <v>0.4229371547698975</v>
+        <v>0.5394067764282227</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -471,10 +471,10 @@
         <v>1000</v>
       </c>
       <c r="E4">
-        <v>0.7669979473319872</v>
+        <v>0.7021217688485819</v>
       </c>
       <c r="F4">
-        <v>0.4240078926086426</v>
+        <v>0.5432178974151611</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -491,10 +491,10 @@
         <v>1000</v>
       </c>
       <c r="E5">
-        <v>0.7573468699457231</v>
+        <v>0.6929033293078816</v>
       </c>
       <c r="F5">
-        <v>0.4236278533935547</v>
+        <v>0.5389001369476318</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -511,10 +511,10 @@
         <v>1000</v>
       </c>
       <c r="E6">
-        <v>0.7477715283659775</v>
+        <v>0.6837528543024479</v>
       </c>
       <c r="F6">
-        <v>0.4230308532714844</v>
+        <v>0.5396459102630615</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -531,10 +531,10 @@
         <v>1000</v>
       </c>
       <c r="E7">
-        <v>0.7382713538428105</v>
+        <v>0.6746698136444963</v>
       </c>
       <c r="F7">
-        <v>0.4240670204162598</v>
+        <v>0.5402328968048096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -551,10 +551,10 @@
         <v>1000</v>
       </c>
       <c r="E8">
-        <v>0.7288457709375079</v>
+        <v>0.6656536723976223</v>
       </c>
       <c r="F8">
-        <v>0.4236929416656494</v>
+        <v>0.5395369529724121</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -571,10 +571,10 @@
         <v>1000</v>
       </c>
       <c r="E9">
-        <v>0.7194941979269232</v>
+        <v>0.6567038912164178</v>
       </c>
       <c r="F9">
-        <v>0.4241008758544922</v>
+        <v>0.5403330326080322</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -591,10 +591,10 @@
         <v>1000</v>
       </c>
       <c r="E10">
-        <v>0.7102160472040976</v>
+        <v>0.6478199266815158</v>
       </c>
       <c r="F10">
-        <v>0.4239270687103271</v>
+        <v>0.5435070991516113</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -611,10 +611,10 @@
         <v>1000</v>
       </c>
       <c r="E11">
-        <v>0.7010107256746838</v>
+        <v>0.639001231629741</v>
       </c>
       <c r="F11">
-        <v>0.4251708984375</v>
+        <v>0.5395870208740234</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -631,10 +631,10 @@
         <v>1000</v>
       </c>
       <c r="E12">
-        <v>0.6918776351487286</v>
+        <v>0.6302472554790715</v>
       </c>
       <c r="F12">
-        <v>0.4245810508728027</v>
+        <v>0.5400710105895996</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -651,10 +651,10 @@
         <v>1000</v>
       </c>
       <c r="E13">
-        <v>0.6828161727273929</v>
+        <v>0.6215574445481323</v>
       </c>
       <c r="F13">
-        <v>0.4243700504302979</v>
+        <v>0.5394001007080078</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -671,10 +671,10 @@
         <v>1000</v>
       </c>
       <c r="E14">
-        <v>0.6738257311842164</v>
+        <v>0.6129312423699657</v>
       </c>
       <c r="F14">
-        <v>0.4248731136322021</v>
+        <v>0.5395388603210449</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -691,10 +691,10 @@
         <v>1000</v>
       </c>
       <c r="E15">
-        <v>0.664905699340551</v>
+        <v>0.6043680899998364</v>
       </c>
       <c r="F15">
-        <v>0.4256191253662109</v>
+        <v>0.5398619174957275</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -711,10 +711,10 @@
         <v>1000</v>
       </c>
       <c r="E16">
-        <v>0.6560554624348177</v>
+        <v>0.595867426316868</v>
       </c>
       <c r="F16">
-        <v>0.4251570701599121</v>
+        <v>0.5394887924194336</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -731,10 +731,10 @@
         <v>1000</v>
       </c>
       <c r="E17">
-        <v>0.6472744024852687</v>
+        <v>0.5874286883192994</v>
       </c>
       <c r="F17">
-        <v>0.4244120121002197</v>
+        <v>0.5402019023895264</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -751,10 +751,10 @@
         <v>1000</v>
       </c>
       <c r="E18">
-        <v>0.6385618986459534</v>
+        <v>0.5790513114131978</v>
       </c>
       <c r="F18">
-        <v>0.4255349636077881</v>
+        <v>0.5395708084106445</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -771,10 +771,10 @@
         <v>1000</v>
       </c>
       <c r="E19">
-        <v>0.6299173275556198</v>
+        <v>0.570734729694463</v>
       </c>
       <c r="F19">
-        <v>0.4252028465270996</v>
+        <v>0.5397601127624512</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -791,10 +791,10 @@
         <v>1000</v>
       </c>
       <c r="E20">
-        <v>0.6213400636793022</v>
+        <v>0.562478376223991</v>
       </c>
       <c r="F20">
-        <v>0.4247908592224121</v>
+        <v>0.5398440361022949</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -811,10 +811,10 @@
         <v>1000</v>
       </c>
       <c r="E21">
-        <v>0.6128294796423707</v>
+        <v>0.5542816832958697</v>
       </c>
       <c r="F21">
-        <v>0.4264388084411621</v>
+        <v>0.539525032043457</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +848,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6976306592442035</v>
+        <v>0.6356873035093054</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -856,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.4246722221374511</v>
+        <v>0.5520862579345703</v>
       </c>
     </row>
   </sheetData>
@@ -890,7 +890,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.00292447021965943</v>
+        <v>0.002686435771280677</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.348618515725034e-06</v>
+        <v>0.002881593276699852</v>
       </c>
     </row>
   </sheetData>
